--- a/forms/psa_corn_disease/psa_corn_disease.xlsx
+++ b/forms/psa_corn_disease/psa_corn_disease.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_corn_disease\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="200">
   <si>
     <t>type</t>
   </si>
@@ -592,6 +592,36 @@
   </si>
   <si>
     <t>If there is a 10% difference in stand count and growth stage between the cover and bare, the form promts you to dig samples. You will return to your marked sections with a shovel and a plastic bag for each treatment.</t>
+  </si>
+  <si>
+    <t>c2s1.PNG</t>
+  </si>
+  <si>
+    <t>c2s2.PNG</t>
+  </si>
+  <si>
+    <t>b2s1.PNG</t>
+  </si>
+  <si>
+    <t>b2s2.PNG</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Today's date</t>
+  </si>
+  <si>
+    <t>photonote</t>
+  </si>
+  <si>
+    <t>Instructions and places to take photos will appear in this form here if any of your reps required images. If you were not prompted to dig plants, you can finish and submit the form.</t>
+  </si>
+  <si>
+    <t>If you have not seen any promts to dig, then you have finished with field sampling. If you have dug plants, save this form to take seedling photos in the lab.</t>
+  </si>
+  <si>
+    <t>note_end</t>
   </si>
 </sst>
 </file>
@@ -607,7 +637,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +656,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -639,13 +675,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +1000,7 @@
     <col min="3" max="3" width="34.08984375" customWidth="1"/>
     <col min="5" max="5" width="14.6328125" customWidth="1"/>
     <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="28.26953125" customWidth="1"/>
     <col min="8" max="8" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1076,7 +1113,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1128,328 +1165,316 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
+        <v>194</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>153</v>
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>186</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>153</v>
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
-      </c>
-      <c r="G37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>185</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>153</v>
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1457,10 +1482,10 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1468,10 +1493,10 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1479,10 +1504,10 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1490,10 +1515,10 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1501,37 +1526,38 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" t="s">
-        <v>27</v>
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1540,12 +1566,16 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1554,12 +1584,16 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1568,12 +1602,16 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1582,13 +1620,17 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" t="s">
-        <v>77</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -1598,310 +1640,301 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" t="s">
-        <v>27</v>
+        <v>77</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>184</v>
+      </c>
+      <c r="G57" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>153</v>
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>185</v>
+      </c>
+      <c r="G64" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>153</v>
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
-      </c>
-      <c r="G70" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>184</v>
+      </c>
+      <c r="G71" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
-      </c>
-      <c r="G77" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>185</v>
+      </c>
+      <c r="G78" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>153</v>
+        <v>97</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" t="s">
-        <v>99</v>
-      </c>
-      <c r="E82" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -1909,10 +1942,10 @@
         <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -1920,10 +1953,10 @@
         <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -1931,10 +1964,10 @@
         <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -1942,10 +1975,10 @@
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -1953,40 +1986,38 @@
         <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" t="s">
-        <v>112</v>
-      </c>
-      <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="E88" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" t="s">
-        <v>115</v>
-      </c>
-      <c r="H89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1995,12 +2026,16 @@
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" t="s">
-        <v>71</v>
-      </c>
-      <c r="H90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2009,12 +2044,16 @@
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" t="s">
-        <v>73</v>
-      </c>
-      <c r="H91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2023,12 +2062,16 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" t="s">
-        <v>75</v>
-      </c>
-      <c r="H92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2037,127 +2080,122 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" t="s">
-        <v>120</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" t="s">
-        <v>123</v>
-      </c>
-      <c r="H94" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>120</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" t="s">
+        <v>123</v>
+      </c>
+      <c r="H96" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>126</v>
-      </c>
-      <c r="H97" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
-      </c>
-      <c r="H98" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>130</v>
-      </c>
-      <c r="H99" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
-      </c>
-      <c r="H100" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H101" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H102" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -2165,28 +2203,73 @@
         <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C103" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H103" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>135</v>
+      </c>
+      <c r="H104" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" t="s">
+        <v>137</v>
+      </c>
+      <c r="H105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" t="s">
+        <v>139</v>
+      </c>
+      <c r="H106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" t="s">
+        <v>183</v>
+      </c>
+      <c r="H107" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>25</v>
       </c>
     </row>

--- a/forms/psa_corn_disease/psa_corn_disease.xlsx
+++ b/forms/psa_corn_disease/psa_corn_disease.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="227">
   <si>
     <t>type</t>
   </si>
@@ -702,7 +702,7 @@
     <t>weightnote</t>
   </si>
   <si>
-    <t>Places to take dry weights will appear in this form here if any of your reps required sampling. Fill in any that are applicable and leave others blank.  If you were not prompted to dig plants, you can finish and submit the form.</t>
+    <t>Take dry weights of any plants that  required sampling. Fill in any that are applicable and leave others blank.  If you were not prompted to dig plants, you can finish and submit the form.</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="I111" sqref="I111:I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,9 +2583,6 @@
       <c r="D111" t="s">
         <v>15</v>
       </c>
-      <c r="I111" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -2600,11 +2597,8 @@
       <c r="D112" t="s">
         <v>15</v>
       </c>
-      <c r="I112" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>193</v>
       </c>
@@ -2617,11 +2611,8 @@
       <c r="D113" t="s">
         <v>15</v>
       </c>
-      <c r="I113" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>193</v>
       </c>
@@ -2634,11 +2625,8 @@
       <c r="D114" t="s">
         <v>15</v>
       </c>
-      <c r="I114" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>193</v>
       </c>
@@ -2651,11 +2639,8 @@
       <c r="D115" t="s">
         <v>15</v>
       </c>
-      <c r="I115" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>193</v>
       </c>
@@ -2668,11 +2653,8 @@
       <c r="D116" t="s">
         <v>15</v>
       </c>
-      <c r="I116" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>193</v>
       </c>
@@ -2685,11 +2667,8 @@
       <c r="D117" t="s">
         <v>15</v>
       </c>
-      <c r="I117" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>193</v>
       </c>
@@ -2702,11 +2681,8 @@
       <c r="D118" t="s">
         <v>15</v>
       </c>
-      <c r="I118" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>38</v>
       </c>
